--- a/AAII_Financials/Quarterly/APYP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APYP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>APYP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,31 +1005,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1033,11 +1052,14 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,20 +1124,21 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1120,13 +1146,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1135,19 +1161,22 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,11 +1184,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1167,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
@@ -1182,19 +1211,22 @@
         <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,34 +1254,34 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1257,10 +1290,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,46 +1304,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,22 +1354,22 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1339,7 +1378,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1351,57 +1390,63 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-400</v>
       </c>
       <c r="M23" s="3">
         <v>-400</v>
       </c>
       <c r="N23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-400</v>
       </c>
       <c r="M26" s="3">
         <v>-400</v>
       </c>
       <c r="N26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
       </c>
       <c r="M27" s="3">
         <v>-400</v>
       </c>
       <c r="N27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,34 +1854,34 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -1821,57 +1890,63 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-400</v>
       </c>
       <c r="M33" s="3">
         <v>-400</v>
       </c>
       <c r="N33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-400</v>
       </c>
       <c r="M35" s="3">
         <v>-400</v>
       </c>
       <c r="N35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2066,11 +2152,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2101,8 +2187,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2171,11 +2263,11 @@
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2192,11 +2284,14 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2253,8 +2351,8 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2274,8 +2372,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2289,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2298,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2325,19 +2426,22 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2359,14 +2463,14 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -2383,16 +2487,19 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2422,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2430,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2674,19 +2799,19 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -2695,10 +2820,10 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
@@ -2712,8 +2837,11 @@
       <c r="Q54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,19 +2879,20 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -2774,16 +2904,16 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2797,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2821,125 +2954,134 @@
         <v>300</v>
       </c>
       <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
       </c>
       <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4300</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-4100</v>
       </c>
       <c r="Q72" s="3">
         <v>-4100</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-4100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
       <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-400</v>
       </c>
       <c r="M81" s="3">
         <v>-400</v>
       </c>
       <c r="N81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4130,19 +4346,19 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -4151,13 +4367,16 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4336,8 +4565,8 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4354,17 +4583,20 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4582,28 +4827,28 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -4612,13 +4857,16 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4676,11 +4927,11 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APYP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APYP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>APYP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,10 +665,10 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -676,70 +676,85 @@
     <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +803,20 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +865,20 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +927,20 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,19 +959,23 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -958,8 +1013,20 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1075,20 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1019,21 +1098,21 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1043,8 +1122,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1055,25 +1134,37 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1108,8 +1199,20 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1228,74 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1376,12 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,49 +1389,61 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="K20" s="3">
         <v>-2800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-200</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,149 +1451,185 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="J21" s="3">
         <v>1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="K21" s="3">
         <v>-2800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
         <v>1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1678,20 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1740,144 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1926,20 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1988,20 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +2050,20 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +2112,20 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,99 +2133,123 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="K32" s="3">
         <v>2800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>200</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>900</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2298,149 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2459,12 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,13 +2483,17 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2155,19 +2502,19 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2190,8 +2537,20 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,16 +2599,28 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -2266,8 +2637,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2278,8 +2649,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2287,11 +2658,23 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,25 +2723,37 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2375,49 +2770,61 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2429,48 +2836,60 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -2478,11 +2897,11 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
@@ -2490,22 +2909,34 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2532,39 +2963,51 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="V48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2590,8 +3033,20 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +3095,20 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +3157,20 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +3219,20 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,37 +3281,49 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -2835,13 +3338,25 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3375,12 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3399,12 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2892,13 +3415,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -2907,39 +3430,51 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
@@ -2957,16 +3492,16 @@
         <v>300</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
@@ -2975,113 +3510,149 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L59" s="3">
+        <v>900</v>
+      </c>
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3701,20 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3763,20 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3825,20 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3887,20 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3949,82 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="U66" s="3">
         <v>100</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +4043,12 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +4097,20 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +4159,20 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +4221,20 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +4283,82 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="M72" s="3">
         <v>-7000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-6800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-6100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>-5700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>-5200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>-4800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>-4400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="U72" s="3">
         <v>-4100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="V72" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4407,20 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4469,20 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4531,82 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M76" s="3">
         <v>-2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4655,149 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,22 +4816,26 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4075,8 +4870,20 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4932,20 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4994,20 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +5056,20 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +5118,20 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,19 +5180,31 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -4349,13 +5216,13 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4364,7 +5231,7 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -4373,10 +5240,22 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,31 +5274,35 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4445,8 +5328,20 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +5390,20 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,16 +5452,28 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>200</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -4568,17 +5487,17 @@
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4586,17 +5505,29 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5546,12 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5600,20 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5662,20 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5724,20 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,46 +5786,58 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
@@ -4863,10 +5846,22 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,35 +5910,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5970,18 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APYP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APYP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>APYP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,107 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +826,17 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +897,17 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +968,17 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +1001,11 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -977,14 +1018,14 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
@@ -1025,8 +1066,17 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1137,17 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1110,20 +1169,20 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1131,8 +1190,8 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1146,11 +1205,20 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1166,14 +1234,14 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1211,8 +1279,17 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1309,82 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1392,70 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1478,11 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,61 +1490,70 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1561,70 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-3200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
       <c r="S21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1521,115 +1640,133 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-400</v>
       </c>
       <c r="R23" s="3">
         <v>-400</v>
       </c>
       <c r="S23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1827,17 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1898,159 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-400</v>
       </c>
       <c r="R26" s="3">
         <v>-400</v>
       </c>
       <c r="S26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-400</v>
       </c>
       <c r="R27" s="3">
         <v>-400</v>
       </c>
       <c r="S27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2111,17 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2182,17 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2253,17 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2324,17 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,123 +2342,141 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>200</v>
+      </c>
+      <c r="H32" s="3">
         <v>2500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-400</v>
       </c>
       <c r="R33" s="3">
         <v>-400</v>
       </c>
       <c r="S33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2537,164 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-400</v>
       </c>
       <c r="R35" s="3">
         <v>-400</v>
       </c>
       <c r="S35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2717,11 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,43 +2744,46 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2549,8 +2809,17 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,25 +2880,34 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -2649,8 +2927,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2658,8 +2936,8 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2670,11 +2948,20 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +3022,17 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2746,23 +3042,23 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2782,14 +3078,14 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -2797,28 +3093,37 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -2827,13 +3132,13 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2848,19 +3153,28 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2885,32 +3199,32 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
@@ -2921,8 +3235,17 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2932,20 +3255,20 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2975,30 +3298,39 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -3009,14 +3341,14 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3045,8 +3377,17 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3448,17 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3519,17 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3590,17 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,28 +3661,37 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -3323,7 +3700,7 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -3332,13 +3709,13 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
@@ -3347,7 +3724,7 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
         <v>100</v>
@@ -3355,8 +3732,17 @@
       <c r="V54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3765,11 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,34 +3792,37 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -3442,22 +3834,22 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -3465,25 +3857,34 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
-      </c>
       <c r="H58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
@@ -3504,155 +3905,182 @@
         <v>300</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
       <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
-        <v>100</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>3200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>900</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1300</v>
       </c>
       <c r="O59" s="3">
         <v>900</v>
       </c>
       <c r="P59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R59" s="3">
+        <v>900</v>
+      </c>
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
-        <v>100</v>
-      </c>
-      <c r="U59" s="3">
-        <v>100</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
-        <v>100</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
-        <v>100</v>
-      </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +4141,17 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +4212,17 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4283,17 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4354,17 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4425,88 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3">
-        <v>100</v>
-      </c>
-      <c r="V66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4529,11 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4594,17 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4665,17 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4736,17 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4807,88 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-3300</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
         <v>-8200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-7900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-7800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-9500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-6600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-9500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-6600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-7000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-6800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-6100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-5200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-4800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-4400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-4300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-4100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4949,17 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +5020,17 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +5091,88 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-3700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
-      <c r="V76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5233,164 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-400</v>
       </c>
       <c r="R81" s="3">
         <v>-400</v>
       </c>
       <c r="S81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,19 +5413,22 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -4840,11 +5436,11 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4882,8 +5478,17 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5549,17 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5620,17 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5691,17 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5762,17 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,28 +5833,37 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -5228,34 +5878,43 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,40 +5937,43 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5340,8 +6002,17 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +6073,17 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +6144,17 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5473,17 +6162,17 @@
         <v>4</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5499,14 +6188,14 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5517,17 +6206,26 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6248,11 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6313,17 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6384,17 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6455,17 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,34 +6526,43 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5834,39 +6571,48 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5874,17 +6620,17 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5922,34 +6668,43 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -5958,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5982,6 +6737,15 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APYP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APYP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>APYP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1013,22 +1027,22 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1178,23 +1198,23 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1214,11 +1234,14 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1243,8 +1266,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,28 +1338,29 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
       </c>
       <c r="G17" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>700</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -1342,14 +1369,14 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1357,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1372,19 +1399,22 @@
         <v>200</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
       <c r="X17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,19 +1422,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-500</v>
       </c>
       <c r="G18" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-700</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1413,14 +1443,14 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1428,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
@@ -1443,19 +1473,22 @@
         <v>-200</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,58 +1524,58 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1550,10 +1584,13 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,70 +1598,73 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-300</v>
       </c>
       <c r="U21" s="3">
         <v>-300</v>
       </c>
       <c r="V21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="W21" s="3">
         <v>-100</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1649,30 +1689,30 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
@@ -1680,7 +1720,7 @@
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1692,81 +1732,87 @@
         <v>0</v>
       </c>
       <c r="Y22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-400</v>
       </c>
       <c r="U23" s="3">
         <v>-400</v>
       </c>
       <c r="V23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-400</v>
       </c>
       <c r="U26" s="3">
         <v>-400</v>
       </c>
       <c r="V26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-400</v>
       </c>
       <c r="U27" s="3">
         <v>-400</v>
       </c>
       <c r="V27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,58 +2412,58 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
-        <v>100</v>
-      </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
-        <v>100</v>
-      </c>
       <c r="U32" s="3">
         <v>100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2402,81 +2472,87 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-400</v>
       </c>
       <c r="U33" s="3">
         <v>-400</v>
       </c>
       <c r="V33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-400</v>
       </c>
       <c r="U35" s="3">
         <v>-400</v>
       </c>
       <c r="V35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,13 +2833,14 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2762,11 +2849,11 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2777,16 +2864,16 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2904,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2936,11 +3029,11 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
@@ -2957,11 +3050,14 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3051,8 +3150,8 @@
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3060,8 +3159,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -3087,8 +3186,8 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3117,11 +3219,11 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -3129,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -3162,19 +3264,22 @@
         <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W46" s="3">
         <v>100</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3208,8 +3313,8 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
@@ -3220,14 +3325,14 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3264,14 +3372,14 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3307,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3332,8 +3443,8 @@
       <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -3350,8 +3461,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3685,11 +3811,11 @@
         <v>200</v>
       </c>
       <c r="G54" s="3">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -3697,25 +3823,25 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
@@ -3724,10 +3850,10 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3804,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3813,19 +3944,19 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -3843,16 +3974,16 @@
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
@@ -3866,28 +3997,31 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
@@ -3914,173 +4048,182 @@
         <v>300</v>
       </c>
       <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
       </c>
       <c r="W58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
       </c>
       <c r="L59" s="3">
+        <v>700</v>
+      </c>
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3">
-        <v>100</v>
-      </c>
       <c r="X59" s="3">
         <v>100</v>
       </c>
       <c r="Y59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
-        <v>100</v>
-      </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>200</v>
       </c>
-      <c r="X60" s="3">
-        <v>100</v>
-      </c>
       <c r="Y60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
       <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>200</v>
       </c>
-      <c r="X66" s="3">
-        <v>100</v>
-      </c>
       <c r="Y66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3300</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
       <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
         <v>-8200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4300</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-4100</v>
       </c>
       <c r="Y72" s="3">
         <v>-4100</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-4100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-100</v>
       </c>
-      <c r="X76" s="3">
-        <v>0</v>
-      </c>
       <c r="Y76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-400</v>
       </c>
       <c r="U81" s="3">
         <v>-400</v>
       </c>
       <c r="V81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5430,20 +5629,20 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5856,18 +6073,18 @@
       <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -5887,19 +6104,19 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
@@ -5908,13 +6125,16 @@
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5966,8 +6187,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5975,8 +6196,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,29 +6380,32 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6197,8 +6427,8 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -6215,17 +6445,20 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,31 +6778,34 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -6571,28 +6817,28 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
@@ -6601,18 +6847,21 @@
         <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -6620,8 +6869,8 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
@@ -6632,8 +6881,8 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6689,19 +6941,19 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -6713,10 +6965,10 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
